--- a/Account.xlsx
+++ b/Account.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Code python\Twitter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Code python\Twitter\Twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3914D27E-441F-4AAA-98EA-DCC247819983}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FAAD30-B96F-4874-B0BF-5EB7899DCE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="6105" windowWidth="21600" windowHeight="5865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6195" yWindow="5580" windowWidth="21600" windowHeight="5865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>https://twitter.com/elonmusk</t>
-  </si>
-  <si>
-    <t>https://twitter.com/DJSnM</t>
+    <t>https://twitter.com/anhtuhan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +68,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -348,11 +356,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -360,16 +366,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{CBCDDCA0-5F47-48F7-B528-55AEC7DBA2AF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Account.xlsx
+++ b/Account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Code python\Twitter\Twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FAAD30-B96F-4874-B0BF-5EB7899DCE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C8E9FD-1D49-4AAA-B8F2-E53C594A144C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6195" yWindow="5580" windowWidth="21600" windowHeight="5865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>https://twitter.com/anhtuhan</t>
+    <t>https://x.com/duyhoang7119/status/1728005937959763997?s=46</t>
   </si>
 </sst>
 </file>
@@ -371,9 +371,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{CBCDDCA0-5F47-48F7-B528-55AEC7DBA2AF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Account.xlsx
+++ b/Account.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Code python\Twitter\Twitter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAN ANH TU\Desktop\Twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C8E9FD-1D49-4AAA-B8F2-E53C594A144C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F33332-0606-4F5F-B510-C165EBD1BBEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="5580" windowWidth="21600" windowHeight="5865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="6105" windowWidth="21600" windowHeight="5865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>https://x.com/duyhoang7119/status/1728005937959763997?s=46</t>
+    <t>https://twitter.com/buitengebieden/status/1729179274374971579</t>
   </si>
 </sst>
 </file>
@@ -43,9 +43,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -68,16 +67,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -358,11 +355,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -372,5 +369,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>